--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H2">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I2">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J2">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.041888666666667</v>
+        <v>0.6421666666666667</v>
       </c>
       <c r="N2">
-        <v>3.125666</v>
+        <v>1.9265</v>
       </c>
       <c r="O2">
-        <v>0.02821583673558111</v>
+        <v>0.01053034495863192</v>
       </c>
       <c r="P2">
-        <v>0.02821583673558111</v>
+        <v>0.01053034495863192</v>
       </c>
       <c r="Q2">
-        <v>111.3555912830171</v>
+        <v>135.7935051777778</v>
       </c>
       <c r="R2">
-        <v>1002.200321547154</v>
+        <v>1222.1415466</v>
       </c>
       <c r="S2">
-        <v>0.004257059578972404</v>
+        <v>0.002549462092556765</v>
       </c>
       <c r="T2">
-        <v>0.004257059578972406</v>
+        <v>0.002549462092556765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H3">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I3">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J3">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.207725</v>
       </c>
       <c r="O3">
-        <v>0.001875163464649961</v>
+        <v>0.001135435196746336</v>
       </c>
       <c r="P3">
-        <v>0.001875163464649961</v>
+        <v>0.001135435196746336</v>
       </c>
       <c r="Q3">
-        <v>7.400451679502776</v>
+        <v>14.64194438777778</v>
       </c>
       <c r="R3">
-        <v>66.60406511552499</v>
+        <v>131.77749949</v>
       </c>
       <c r="S3">
-        <v>0.0002829149694951548</v>
+        <v>0.0002748959320925793</v>
       </c>
       <c r="T3">
-        <v>0.0002829149694951549</v>
+        <v>0.0002748959320925793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H4">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I4">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J4">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.238270333333334</v>
+        <v>4.207043</v>
       </c>
       <c r="N4">
-        <v>9.714811000000001</v>
+        <v>12.621129</v>
       </c>
       <c r="O4">
-        <v>0.08769699676581807</v>
+        <v>0.06898771977025338</v>
       </c>
       <c r="P4">
-        <v>0.08769699676581807</v>
+        <v>0.06898771977025338</v>
       </c>
       <c r="Q4">
-        <v>346.1017661860732</v>
+        <v>889.6274831097332</v>
       </c>
       <c r="R4">
-        <v>3114.915895674659</v>
+        <v>8006.647347987599</v>
       </c>
       <c r="S4">
-        <v>0.01323126950398939</v>
+        <v>0.01670235657968797</v>
       </c>
       <c r="T4">
-        <v>0.01323126950398939</v>
+        <v>0.01670235657968797</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H5">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I5">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J5">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.220213333333333</v>
+        <v>0.7092303333333333</v>
       </c>
       <c r="N5">
-        <v>3.66064</v>
+        <v>2.127691</v>
       </c>
       <c r="O5">
-        <v>0.03304512401124677</v>
+        <v>0.01163006498592085</v>
       </c>
       <c r="P5">
-        <v>0.03304512401124677</v>
+        <v>0.01163006498592085</v>
       </c>
       <c r="Q5">
-        <v>130.4146801591289</v>
+        <v>149.9748864911556</v>
       </c>
       <c r="R5">
-        <v>1173.73212143216</v>
+        <v>1349.7739784204</v>
       </c>
       <c r="S5">
-        <v>0.004985677477110332</v>
+        <v>0.002815711159706304</v>
       </c>
       <c r="T5">
-        <v>0.004985677477110334</v>
+        <v>0.002815711159706305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H6">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I6">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J6">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.79185600000001</v>
+        <v>54.49253966666668</v>
       </c>
       <c r="N6">
-        <v>80.37556800000002</v>
+        <v>163.477619</v>
       </c>
       <c r="O6">
-        <v>0.7255618176150613</v>
+        <v>0.8935768082459384</v>
       </c>
       <c r="P6">
-        <v>0.7255618176150612</v>
+        <v>0.8935768082459384</v>
       </c>
       <c r="Q6">
-        <v>2863.475783832422</v>
+        <v>11523.07236030485</v>
       </c>
       <c r="R6">
-        <v>25771.2820544918</v>
+        <v>103707.6512427436</v>
       </c>
       <c r="S6">
-        <v>0.1094690160976086</v>
+        <v>0.2163405100555088</v>
       </c>
       <c r="T6">
-        <v>0.1094690160976086</v>
+        <v>0.2163405100555088</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H7">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I7">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J7">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.564199666666667</v>
+        <v>0.8622696666666667</v>
       </c>
       <c r="N7">
-        <v>13.692599</v>
+        <v>2.586809</v>
       </c>
       <c r="O7">
-        <v>0.1236050614076428</v>
+        <v>0.01413962684250905</v>
       </c>
       <c r="P7">
-        <v>0.1236050614076428</v>
+        <v>0.01413962684250905</v>
       </c>
       <c r="Q7">
-        <v>487.8152233304035</v>
+        <v>182.3368083755111</v>
       </c>
       <c r="R7">
-        <v>4390.337009973631</v>
+        <v>1641.0312753796</v>
       </c>
       <c r="S7">
-        <v>0.01864889266286864</v>
+        <v>0.003423291713565883</v>
       </c>
       <c r="T7">
-        <v>0.01864889266286865</v>
+        <v>0.003423291713565884</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.041888666666667</v>
+        <v>0.6421666666666667</v>
       </c>
       <c r="N8">
-        <v>3.125666</v>
+        <v>1.9265</v>
       </c>
       <c r="O8">
-        <v>0.02821583673558111</v>
+        <v>0.01053034495863192</v>
       </c>
       <c r="P8">
-        <v>0.02821583673558111</v>
+        <v>0.01053034495863192</v>
       </c>
       <c r="Q8">
-        <v>80.46810716723934</v>
+        <v>49.59640871983333</v>
       </c>
       <c r="R8">
-        <v>724.2129645051541</v>
+        <v>446.3676784785</v>
       </c>
       <c r="S8">
-        <v>0.003076249000801793</v>
+        <v>0.000931150306434973</v>
       </c>
       <c r="T8">
-        <v>0.003076249000801794</v>
+        <v>0.0009311503064349732</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.207725</v>
       </c>
       <c r="O9">
-        <v>0.001875163464649961</v>
+        <v>0.001135435196746336</v>
       </c>
       <c r="P9">
-        <v>0.001875163464649961</v>
+        <v>0.001135435196746336</v>
       </c>
       <c r="Q9">
         <v>5.347736310058333</v>
@@ -1013,10 +1013,10 @@
         <v>48.12962679052499</v>
       </c>
       <c r="S9">
-        <v>0.0002044408531466741</v>
+        <v>0.0001004013482503009</v>
       </c>
       <c r="T9">
-        <v>0.0002044408531466742</v>
+        <v>0.000100401348250301</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>231.698769</v>
       </c>
       <c r="I10">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J10">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.238270333333334</v>
+        <v>4.207043</v>
       </c>
       <c r="N10">
-        <v>9.714811000000001</v>
+        <v>12.621129</v>
       </c>
       <c r="O10">
-        <v>0.08769699676581807</v>
+        <v>0.06898771977025338</v>
       </c>
       <c r="P10">
-        <v>0.08769699676581807</v>
+        <v>0.06898771977025338</v>
       </c>
       <c r="Q10">
-        <v>250.1010833075177</v>
+        <v>324.922228076689</v>
       </c>
       <c r="R10">
-        <v>2250.909749767659</v>
+        <v>2924.300052690201</v>
       </c>
       <c r="S10">
-        <v>0.009561219155126706</v>
+        <v>0.006100268951936322</v>
       </c>
       <c r="T10">
-        <v>0.009561219155126708</v>
+        <v>0.006100268951936322</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>231.698769</v>
       </c>
       <c r="I11">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J11">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.220213333333333</v>
+        <v>0.7092303333333333</v>
       </c>
       <c r="N11">
-        <v>3.66064</v>
+        <v>2.127691</v>
       </c>
       <c r="O11">
-        <v>0.03304512401124677</v>
+        <v>0.01163006498592085</v>
       </c>
       <c r="P11">
-        <v>0.03304512401124677</v>
+        <v>0.01163006498592085</v>
       </c>
       <c r="Q11">
-        <v>94.24064241690667</v>
+        <v>54.77593172359767</v>
       </c>
       <c r="R11">
-        <v>848.1657817521601</v>
+        <v>492.983385512379</v>
       </c>
       <c r="S11">
-        <v>0.003602765024252455</v>
+        <v>0.001028393525382265</v>
       </c>
       <c r="T11">
-        <v>0.003602765024252456</v>
+        <v>0.001028393525382266</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>231.698769</v>
       </c>
       <c r="I12">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J12">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.79185600000001</v>
+        <v>54.49253966666668</v>
       </c>
       <c r="N12">
-        <v>80.37556800000002</v>
+        <v>163.477619</v>
       </c>
       <c r="O12">
-        <v>0.7255618176150613</v>
+        <v>0.8935768082459384</v>
       </c>
       <c r="P12">
-        <v>0.7255618176150612</v>
+        <v>0.8935768082459384</v>
       </c>
       <c r="Q12">
-        <v>2069.213351475089</v>
+        <v>4208.618120150113</v>
       </c>
       <c r="R12">
-        <v>18622.92016327579</v>
+        <v>37877.56308135102</v>
       </c>
       <c r="S12">
-        <v>0.07910482461941762</v>
+        <v>0.0790149156642148</v>
       </c>
       <c r="T12">
-        <v>0.07910482461941763</v>
+        <v>0.0790149156642148</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>231.698769</v>
       </c>
       <c r="I13">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J13">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.564199666666667</v>
+        <v>0.8622696666666667</v>
       </c>
       <c r="N13">
-        <v>13.692599</v>
+        <v>2.586809</v>
       </c>
       <c r="O13">
-        <v>0.1236050614076428</v>
+        <v>0.01413962684250905</v>
       </c>
       <c r="P13">
-        <v>0.1236050614076428</v>
+        <v>0.01413962684250905</v>
       </c>
       <c r="Q13">
-        <v>352.5064814122924</v>
+        <v>66.59560677090234</v>
       </c>
       <c r="R13">
-        <v>3172.558332710631</v>
+        <v>599.360460938121</v>
       </c>
       <c r="S13">
-        <v>0.01347611804720326</v>
+        <v>0.001250302617720605</v>
       </c>
       <c r="T13">
-        <v>0.01347611804720326</v>
+        <v>0.001250302617720606</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H14">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I14">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J14">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.041888666666667</v>
+        <v>0.6421666666666667</v>
       </c>
       <c r="N14">
-        <v>3.125666</v>
+        <v>1.9265</v>
       </c>
       <c r="O14">
-        <v>0.02821583673558111</v>
+        <v>0.01053034495863192</v>
       </c>
       <c r="P14">
-        <v>0.02821583673558111</v>
+        <v>0.01053034495863192</v>
       </c>
       <c r="Q14">
-        <v>142.401526521814</v>
+        <v>111.9365239660555</v>
       </c>
       <c r="R14">
-        <v>1281.613738696326</v>
+        <v>1007.4287156945</v>
       </c>
       <c r="S14">
-        <v>0.005443927651546986</v>
+        <v>0.002101557981366047</v>
       </c>
       <c r="T14">
-        <v>0.005443927651546988</v>
+        <v>0.002101557981366047</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H15">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I15">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J15">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.207725</v>
       </c>
       <c r="O15">
-        <v>0.001875163464649961</v>
+        <v>0.001135435196746336</v>
       </c>
       <c r="P15">
-        <v>0.001875163464649961</v>
+        <v>0.001135435196746336</v>
       </c>
       <c r="Q15">
-        <v>9.463697367775</v>
+        <v>12.06956368588055</v>
       </c>
       <c r="R15">
-        <v>85.17327630997501</v>
+        <v>108.626073172925</v>
       </c>
       <c r="S15">
-        <v>0.0003617916538163698</v>
+        <v>0.0002266006393351996</v>
       </c>
       <c r="T15">
-        <v>0.0003617916538163699</v>
+        <v>0.0002266006393351996</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H16">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I16">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J16">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.238270333333334</v>
+        <v>4.207043</v>
       </c>
       <c r="N16">
-        <v>9.714811000000001</v>
+        <v>12.621129</v>
       </c>
       <c r="O16">
-        <v>0.08769699676581807</v>
+        <v>0.06898771977025338</v>
       </c>
       <c r="P16">
-        <v>0.08769699676581807</v>
+        <v>0.06898771977025338</v>
       </c>
       <c r="Q16">
-        <v>442.5949273757691</v>
+        <v>733.3326284906195</v>
       </c>
       <c r="R16">
-        <v>3983.354346381921</v>
+        <v>6599.993656415575</v>
       </c>
       <c r="S16">
-        <v>0.01692014701265357</v>
+        <v>0.01376799085585283</v>
       </c>
       <c r="T16">
-        <v>0.01692014701265357</v>
+        <v>0.01376799085585282</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H17">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I17">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J17">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.220213333333333</v>
+        <v>0.7092303333333333</v>
       </c>
       <c r="N17">
-        <v>3.66064</v>
+        <v>2.127691</v>
       </c>
       <c r="O17">
-        <v>0.03304512401124677</v>
+        <v>0.01163006498592085</v>
       </c>
       <c r="P17">
-        <v>0.03304512401124677</v>
+        <v>0.01163006498592085</v>
       </c>
       <c r="Q17">
-        <v>166.77428875856</v>
+        <v>123.6264389378981</v>
       </c>
       <c r="R17">
-        <v>1500.96859882704</v>
+        <v>1112.637950441083</v>
       </c>
       <c r="S17">
-        <v>0.006375684196059002</v>
+        <v>0.002321030886545915</v>
       </c>
       <c r="T17">
-        <v>0.006375684196059004</v>
+        <v>0.002321030886545915</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H18">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I18">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J18">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.79185600000001</v>
+        <v>54.49253966666668</v>
       </c>
       <c r="N18">
-        <v>80.37556800000002</v>
+        <v>163.477619</v>
       </c>
       <c r="O18">
-        <v>0.7255618176150613</v>
+        <v>0.8935768082459384</v>
       </c>
       <c r="P18">
-        <v>0.7255618176150612</v>
+        <v>0.8935768082459384</v>
       </c>
       <c r="Q18">
-        <v>3661.812739511473</v>
+        <v>9498.632970208773</v>
       </c>
       <c r="R18">
-        <v>32956.31465560326</v>
+        <v>85487.69673187895</v>
       </c>
       <c r="S18">
-        <v>0.1399889742358893</v>
+        <v>0.1783325694182028</v>
       </c>
       <c r="T18">
-        <v>0.1399889742358893</v>
+        <v>0.1783325694182028</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H19">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I19">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J19">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.564199666666667</v>
+        <v>0.8622696666666667</v>
       </c>
       <c r="N19">
-        <v>13.692599</v>
+        <v>2.586809</v>
       </c>
       <c r="O19">
-        <v>0.1236050614076428</v>
+        <v>0.01413962684250905</v>
       </c>
       <c r="P19">
-        <v>0.1236050614076428</v>
+        <v>0.01413962684250905</v>
       </c>
       <c r="Q19">
-        <v>623.8180917766211</v>
+        <v>150.3028329219352</v>
       </c>
       <c r="R19">
-        <v>5614.36282598959</v>
+        <v>1352.725496297417</v>
       </c>
       <c r="S19">
-        <v>0.02384820333255204</v>
+        <v>0.002821868206706215</v>
       </c>
       <c r="T19">
-        <v>0.02384820333255205</v>
+        <v>0.002821868206706215</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H20">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I20">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J20">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.041888666666667</v>
+        <v>0.6421666666666667</v>
       </c>
       <c r="N20">
-        <v>3.125666</v>
+        <v>1.9265</v>
       </c>
       <c r="O20">
-        <v>0.02821583673558111</v>
+        <v>0.01053034495863192</v>
       </c>
       <c r="P20">
-        <v>0.02821583673558111</v>
+        <v>0.01053034495863192</v>
       </c>
       <c r="Q20">
-        <v>47.45872092803756</v>
+        <v>18.32406422138889</v>
       </c>
       <c r="R20">
-        <v>427.128488352338</v>
+        <v>164.9165779925</v>
       </c>
       <c r="S20">
-        <v>0.001814319336862008</v>
+        <v>0.0003440260788087506</v>
       </c>
       <c r="T20">
-        <v>0.001814319336862009</v>
+        <v>0.0003440260788087506</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H21">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I21">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J21">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.207725</v>
       </c>
       <c r="O21">
-        <v>0.001875163464649961</v>
+        <v>0.001135435196746336</v>
       </c>
       <c r="P21">
-        <v>0.001875163464649961</v>
+        <v>0.001135435196746336</v>
       </c>
       <c r="Q21">
-        <v>3.154003916213889</v>
+        <v>1.975793532513888</v>
       </c>
       <c r="R21">
-        <v>28.386035245925</v>
+        <v>17.782141792625</v>
       </c>
       <c r="S21">
-        <v>0.000120575737858639</v>
+        <v>3.709463650171176E-05</v>
       </c>
       <c r="T21">
-        <v>0.000120575737858639</v>
+        <v>3.709463650171176E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H22">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I22">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J22">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.238270333333334</v>
+        <v>4.207043</v>
       </c>
       <c r="N22">
-        <v>9.714811000000001</v>
+        <v>12.621129</v>
       </c>
       <c r="O22">
-        <v>0.08769699676581807</v>
+        <v>0.06898771977025338</v>
       </c>
       <c r="P22">
-        <v>0.08769699676581807</v>
+        <v>0.06898771977025338</v>
       </c>
       <c r="Q22">
-        <v>147.5053649742582</v>
+        <v>120.0469132325116</v>
       </c>
       <c r="R22">
-        <v>1327.548284768323</v>
+        <v>1080.422219092605</v>
       </c>
       <c r="S22">
-        <v>0.005639044431253929</v>
+        <v>0.002253826898525516</v>
       </c>
       <c r="T22">
-        <v>0.00563904443125393</v>
+        <v>0.002253826898525516</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H23">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I23">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J23">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.220213333333333</v>
+        <v>0.7092303333333333</v>
       </c>
       <c r="N23">
-        <v>3.66064</v>
+        <v>2.127691</v>
       </c>
       <c r="O23">
-        <v>0.03304512401124677</v>
+        <v>0.01163006498592085</v>
       </c>
       <c r="P23">
-        <v>0.03304512401124677</v>
+        <v>0.01163006498592085</v>
       </c>
       <c r="Q23">
-        <v>55.58152796172445</v>
+        <v>20.23770907203278</v>
       </c>
       <c r="R23">
-        <v>500.2337516555201</v>
+        <v>182.139381648295</v>
       </c>
       <c r="S23">
-        <v>0.002124849532000713</v>
+        <v>0.0003799539017112221</v>
       </c>
       <c r="T23">
-        <v>0.002124849532000714</v>
+        <v>0.0003799539017112221</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H24">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I24">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J24">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.79185600000001</v>
+        <v>54.49253966666668</v>
       </c>
       <c r="N24">
-        <v>80.37556800000002</v>
+        <v>163.477619</v>
       </c>
       <c r="O24">
-        <v>0.7255618176150613</v>
+        <v>0.8935768082459384</v>
       </c>
       <c r="P24">
-        <v>0.7255618176150612</v>
+        <v>0.8935768082459384</v>
       </c>
       <c r="Q24">
-        <v>1220.386839523003</v>
+        <v>1554.930905432517</v>
       </c>
       <c r="R24">
-        <v>10983.48155570703</v>
+        <v>13994.37814889266</v>
       </c>
       <c r="S24">
-        <v>0.04665468006935715</v>
+        <v>0.02919312963278532</v>
       </c>
       <c r="T24">
-        <v>0.04665468006935715</v>
+        <v>0.02919312963278532</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H25">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I25">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J25">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.564199666666667</v>
+        <v>0.8622696666666667</v>
       </c>
       <c r="N25">
-        <v>13.692599</v>
+        <v>2.586809</v>
       </c>
       <c r="O25">
-        <v>0.1236050614076428</v>
+        <v>0.01413962684250905</v>
       </c>
       <c r="P25">
-        <v>0.1236050614076428</v>
+        <v>0.01413962684250905</v>
       </c>
       <c r="Q25">
-        <v>207.9023269666453</v>
+        <v>24.60464793380055</v>
       </c>
       <c r="R25">
-        <v>1871.120942699807</v>
+        <v>221.441831404205</v>
       </c>
       <c r="S25">
-        <v>0.007947985209423336</v>
+        <v>0.0004619412182181081</v>
       </c>
       <c r="T25">
-        <v>0.007947985209423336</v>
+        <v>0.0004619412182181082</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H26">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I26">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J26">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.041888666666667</v>
+        <v>0.6421666666666667</v>
       </c>
       <c r="N26">
-        <v>3.125666</v>
+        <v>1.9265</v>
       </c>
       <c r="O26">
-        <v>0.02821583673558111</v>
+        <v>0.01053034495863192</v>
       </c>
       <c r="P26">
-        <v>0.02821583673558111</v>
+        <v>0.01053034495863192</v>
       </c>
       <c r="Q26">
-        <v>206.9172249138791</v>
+        <v>147.9096125883333</v>
       </c>
       <c r="R26">
-        <v>1862.255024224912</v>
+        <v>1331.186513295</v>
       </c>
       <c r="S26">
-        <v>0.007910325330097339</v>
+        <v>0.00277693656942602</v>
       </c>
       <c r="T26">
-        <v>0.007910325330097339</v>
+        <v>0.002776936569426021</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H27">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I27">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J27">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.207725</v>
       </c>
       <c r="O27">
-        <v>0.001875163464649961</v>
+        <v>0.001135435196746336</v>
       </c>
       <c r="P27">
-        <v>0.001875163464649961</v>
+        <v>0.001135435196746336</v>
       </c>
       <c r="Q27">
-        <v>13.75127110357778</v>
+        <v>15.94836453408333</v>
       </c>
       <c r="R27">
-        <v>123.7614399322</v>
+        <v>143.53528080675</v>
       </c>
       <c r="S27">
-        <v>0.0005257031074959607</v>
+        <v>0.0002994233837965326</v>
       </c>
       <c r="T27">
-        <v>0.0005257031074959608</v>
+        <v>0.0002994233837965326</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H28">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I28">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J28">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.238270333333334</v>
+        <v>4.207043</v>
       </c>
       <c r="N28">
-        <v>9.714811000000001</v>
+        <v>12.621129</v>
       </c>
       <c r="O28">
-        <v>0.08769699676581807</v>
+        <v>0.06898771977025338</v>
       </c>
       <c r="P28">
-        <v>0.08769699676581807</v>
+        <v>0.06898771977025338</v>
       </c>
       <c r="Q28">
-        <v>643.1146938549502</v>
+        <v>969.00404921743</v>
       </c>
       <c r="R28">
-        <v>5788.032244694552</v>
+        <v>8721.036442956869</v>
       </c>
       <c r="S28">
-        <v>0.02458590122246211</v>
+        <v>0.01819261597069466</v>
       </c>
       <c r="T28">
-        <v>0.02458590122246212</v>
+        <v>0.01819261597069466</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H29">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I29">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J29">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.220213333333333</v>
+        <v>0.7092303333333333</v>
       </c>
       <c r="N29">
-        <v>3.66064</v>
+        <v>2.127691</v>
       </c>
       <c r="O29">
-        <v>0.03304512401124677</v>
+        <v>0.01163006498592085</v>
       </c>
       <c r="P29">
-        <v>0.03304512401124677</v>
+        <v>0.01163006498592085</v>
       </c>
       <c r="Q29">
-        <v>242.3321846316089</v>
+        <v>163.3563205386367</v>
       </c>
       <c r="R29">
-        <v>2180.98966168448</v>
+        <v>1470.20688484773</v>
       </c>
       <c r="S29">
-        <v>0.009264218670954453</v>
+        <v>0.00306694157609064</v>
       </c>
       <c r="T29">
-        <v>0.009264218670954455</v>
+        <v>0.003066941576090641</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H30">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I30">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J30">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>26.79185600000001</v>
+        <v>54.49253966666668</v>
       </c>
       <c r="N30">
-        <v>80.37556800000002</v>
+        <v>163.477619</v>
       </c>
       <c r="O30">
-        <v>0.7255618176150613</v>
+        <v>0.8935768082459384</v>
       </c>
       <c r="P30">
-        <v>0.7255618176150612</v>
+        <v>0.8935768082459384</v>
       </c>
       <c r="Q30">
-        <v>5320.814662038998</v>
+        <v>12551.21271380907</v>
       </c>
       <c r="R30">
-        <v>47887.33195835098</v>
+        <v>112960.9144242816</v>
       </c>
       <c r="S30">
-        <v>0.2034116541790969</v>
+        <v>0.2356433835887849</v>
       </c>
       <c r="T30">
-        <v>0.2034116541790969</v>
+        <v>0.2356433835887849</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H31">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I31">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J31">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.564199666666667</v>
+        <v>0.8622696666666667</v>
       </c>
       <c r="N31">
-        <v>13.692599</v>
+        <v>2.586809</v>
       </c>
       <c r="O31">
-        <v>0.1236050614076428</v>
+        <v>0.01413962684250905</v>
       </c>
       <c r="P31">
-        <v>0.1236050614076428</v>
+        <v>0.01413962684250905</v>
       </c>
       <c r="Q31">
-        <v>906.4418869253965</v>
+        <v>198.6057186763634</v>
       </c>
       <c r="R31">
-        <v>8157.976982328569</v>
+        <v>1787.45146808727</v>
       </c>
       <c r="S31">
-        <v>0.03465274687204759</v>
+        <v>0.003728733200218196</v>
       </c>
       <c r="T31">
-        <v>0.03465274687204759</v>
+        <v>0.003728733200218197</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H32">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I32">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J32">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.041888666666667</v>
+        <v>0.6421666666666667</v>
       </c>
       <c r="N32">
-        <v>3.125666</v>
+        <v>1.9265</v>
       </c>
       <c r="O32">
-        <v>0.02821583673558111</v>
+        <v>0.01053034495863192</v>
       </c>
       <c r="P32">
-        <v>0.02821583673558111</v>
+        <v>0.01053034495863192</v>
       </c>
       <c r="Q32">
-        <v>149.4648874473218</v>
+        <v>97.32386820227778</v>
       </c>
       <c r="R32">
-        <v>1345.183987025896</v>
+        <v>875.9148138204999</v>
       </c>
       <c r="S32">
-        <v>0.005713955837300583</v>
+        <v>0.001827211930039365</v>
       </c>
       <c r="T32">
-        <v>0.005713955837300584</v>
+        <v>0.001827211930039366</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H33">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I33">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J33">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>0.207725</v>
       </c>
       <c r="O33">
-        <v>0.001875163464649961</v>
+        <v>0.001135435196746336</v>
       </c>
       <c r="P33">
-        <v>0.001875163464649961</v>
+        <v>0.001135435196746336</v>
       </c>
       <c r="Q33">
-        <v>9.933113053344442</v>
+        <v>10.49395303520278</v>
       </c>
       <c r="R33">
-        <v>89.39801748009999</v>
+        <v>94.44557731682499</v>
       </c>
       <c r="S33">
-        <v>0.0003797371428371628</v>
+        <v>0.0001970192567700115</v>
       </c>
       <c r="T33">
-        <v>0.0003797371428371629</v>
+        <v>0.0001970192567700115</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H34">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I34">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J34">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.238270333333334</v>
+        <v>4.207043</v>
       </c>
       <c r="N34">
-        <v>9.714811000000001</v>
+        <v>12.621129</v>
       </c>
       <c r="O34">
-        <v>0.08769699676581807</v>
+        <v>0.06898771977025338</v>
       </c>
       <c r="P34">
-        <v>0.08769699676581807</v>
+        <v>0.06898771977025338</v>
       </c>
       <c r="Q34">
-        <v>464.5483979052796</v>
+        <v>637.6003609446902</v>
       </c>
       <c r="R34">
-        <v>4180.935581147516</v>
+        <v>5738.403248502212</v>
       </c>
       <c r="S34">
-        <v>0.01775941544033237</v>
+        <v>0.01197066051355609</v>
       </c>
       <c r="T34">
-        <v>0.01775941544033238</v>
+        <v>0.01197066051355609</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H35">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I35">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J35">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.220213333333333</v>
+        <v>0.7092303333333333</v>
       </c>
       <c r="N35">
-        <v>3.66064</v>
+        <v>2.127691</v>
       </c>
       <c r="O35">
-        <v>0.03304512401124677</v>
+        <v>0.01163006498592085</v>
       </c>
       <c r="P35">
-        <v>0.03304512401124677</v>
+        <v>0.01163006498592085</v>
       </c>
       <c r="Q35">
-        <v>175.0465806599822</v>
+        <v>107.4877334332585</v>
       </c>
       <c r="R35">
-        <v>1575.41922593984</v>
+        <v>967.3896008993269</v>
       </c>
       <c r="S35">
-        <v>0.006691929110869813</v>
+        <v>0.002018033936484499</v>
       </c>
       <c r="T35">
-        <v>0.006691929110869814</v>
+        <v>0.002018033936484499</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H36">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I36">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J36">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>26.79185600000001</v>
+        <v>54.49253966666668</v>
       </c>
       <c r="N36">
-        <v>80.37556800000002</v>
+        <v>163.477619</v>
       </c>
       <c r="O36">
-        <v>0.7255618176150613</v>
+        <v>0.8935768082459384</v>
       </c>
       <c r="P36">
-        <v>0.7255618176150612</v>
+        <v>0.8935768082459384</v>
       </c>
       <c r="Q36">
-        <v>3843.444956893846</v>
+        <v>8258.642224540974</v>
       </c>
       <c r="R36">
-        <v>34591.00461204461</v>
+        <v>74327.78002086875</v>
       </c>
       <c r="S36">
-        <v>0.1469326684136917</v>
+        <v>0.1550522998864418</v>
       </c>
       <c r="T36">
-        <v>0.1469326684136917</v>
+        <v>0.1550522998864418</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H37">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I37">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J37">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.564199666666667</v>
+        <v>0.8622696666666667</v>
       </c>
       <c r="N37">
-        <v>13.692599</v>
+        <v>2.586809</v>
       </c>
       <c r="O37">
-        <v>0.1236050614076428</v>
+        <v>0.01413962684250905</v>
       </c>
       <c r="P37">
-        <v>0.1236050614076428</v>
+        <v>0.01413962684250905</v>
       </c>
       <c r="Q37">
-        <v>654.7605433198271</v>
+        <v>130.6816808619081</v>
       </c>
       <c r="R37">
-        <v>5892.844889878445</v>
+        <v>1176.135127757173</v>
       </c>
       <c r="S37">
-        <v>0.02503111528354793</v>
+        <v>0.002453489886080042</v>
       </c>
       <c r="T37">
-        <v>0.02503111528354793</v>
+        <v>0.002453489886080042</v>
       </c>
     </row>
   </sheetData>
